--- a/Mietpreise_nachKantonen_2012-2022_bearbeitet_3ZW.xlsx
+++ b/Mietpreise_nachKantonen_2012-2022_bearbeitet_3ZW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\HSLU\Master\2. Semester, Frühling 24\BINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D312B756-1C0B-43E3-84D4-E3178B88FC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BDE8EC-5B54-4048-ABFF-A0D9F027032B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="107">
   <si>
     <t>Uri</t>
   </si>
@@ -124,26 +124,238 @@
     <t>Jahr</t>
   </si>
   <si>
-    <r>
-      <t>Durchschnittl. Mietpreis pro m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3-Zimmer</t>
-    </r>
+    <t>Durchschnittl, Mietpreis pro m2 3-Zimmer</t>
+  </si>
+  <si>
+    <t>15,4</t>
+  </si>
+  <si>
+    <t>16,3</t>
+  </si>
+  <si>
+    <t>14,3</t>
+  </si>
+  <si>
+    <t>17,4</t>
+  </si>
+  <si>
+    <t>14,5</t>
+  </si>
+  <si>
+    <t>16,5</t>
+  </si>
+  <si>
+    <t>15,2</t>
+  </si>
+  <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>13,9</t>
+  </si>
+  <si>
+    <t>13,8</t>
+  </si>
+  <si>
+    <t>15,9</t>
+  </si>
+  <si>
+    <t>15,1</t>
+  </si>
+  <si>
+    <t>15,8</t>
+  </si>
+  <si>
+    <t>14,6</t>
+  </si>
+  <si>
+    <t>14,2</t>
+  </si>
+  <si>
+    <t>18,1</t>
+  </si>
+  <si>
+    <t>20,3</t>
+  </si>
+  <si>
+    <t>12,2</t>
+  </si>
+  <si>
+    <t>16,8</t>
+  </si>
+  <si>
+    <t>19,7</t>
+  </si>
+  <si>
+    <t>15,3</t>
+  </si>
+  <si>
+    <t>16,1</t>
+  </si>
+  <si>
+    <t>13,7</t>
+  </si>
+  <si>
+    <t>16,2</t>
+  </si>
+  <si>
+    <t>17,3</t>
+  </si>
+  <si>
+    <t>14,4</t>
+  </si>
+  <si>
+    <t>14,9</t>
+  </si>
+  <si>
+    <t>15,7</t>
+  </si>
+  <si>
+    <t>14,1</t>
+  </si>
+  <si>
+    <t>12,9</t>
+  </si>
+  <si>
+    <t>16,6</t>
+  </si>
+  <si>
+    <t>19,2</t>
+  </si>
+  <si>
+    <t>16,7</t>
+  </si>
+  <si>
+    <t>19,3</t>
+  </si>
+  <si>
+    <t>14,8</t>
+  </si>
+  <si>
+    <t>17,7</t>
+  </si>
+  <si>
+    <t>17,2</t>
+  </si>
+  <si>
+    <t>14,7</t>
+  </si>
+  <si>
+    <t>12,6</t>
+  </si>
+  <si>
+    <t>20,1</t>
+  </si>
+  <si>
+    <t>13,4</t>
+  </si>
+  <si>
+    <t>15,5</t>
+  </si>
+  <si>
+    <t>12,3</t>
+  </si>
+  <si>
+    <t>19,5</t>
+  </si>
+  <si>
+    <t>11,5</t>
+  </si>
+  <si>
+    <t>19,1</t>
+  </si>
+  <si>
+    <t>15,6</t>
+  </si>
+  <si>
+    <t>13,1</t>
+  </si>
+  <si>
+    <t>19,8</t>
+  </si>
+  <si>
+    <t>13,3</t>
+  </si>
+  <si>
+    <t>16,9</t>
+  </si>
+  <si>
+    <t>13,5</t>
+  </si>
+  <si>
+    <t>12,8</t>
+  </si>
+  <si>
+    <t>17,1</t>
+  </si>
+  <si>
+    <t>18,9</t>
+  </si>
+  <si>
+    <t>10,9</t>
+  </si>
+  <si>
+    <t>18,7</t>
+  </si>
+  <si>
+    <t>12,7</t>
+  </si>
+  <si>
+    <t>13,6</t>
+  </si>
+  <si>
+    <t>11,7</t>
+  </si>
+  <si>
+    <t>18,5</t>
+  </si>
+  <si>
+    <t>11,3</t>
+  </si>
+  <si>
+    <t>18,6</t>
+  </si>
+  <si>
+    <t>13,2</t>
+  </si>
+  <si>
+    <t>20,2</t>
+  </si>
+  <si>
+    <t>18,4</t>
+  </si>
+  <si>
+    <t>18,3</t>
+  </si>
+  <si>
+    <t>11,8</t>
+  </si>
+  <si>
+    <t>16,4</t>
+  </si>
+  <si>
+    <t>10,6</t>
+  </si>
+  <si>
+    <t>18,8</t>
+  </si>
+  <si>
+    <t>19,9</t>
+  </si>
+  <si>
+    <t>12,5</t>
+  </si>
+  <si>
+    <t>11,6</t>
+  </si>
+  <si>
+    <t>12,4</t>
+  </si>
+  <si>
+    <t>19,6</t>
+  </si>
+  <si>
+    <t>11,1</t>
   </si>
 </sst>
 </file>
@@ -158,7 +370,7 @@
     <numFmt numFmtId="167" formatCode="[Black]##0.0__"/>
     <numFmt numFmtId="168" formatCode="[Black]\(##0.0\)__"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="8"/>
       <name val="NewsGothic"/>
@@ -176,12 +388,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -325,7 +531,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -334,8 +540,8 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -345,7 +551,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -363,7 +569,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -384,28 +590,28 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -722,7 +928,7 @@
   <dimension ref="A1:G298"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="12.75" customHeight="1"/>
@@ -773,8 +979,8 @@
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29">
-        <v>15.4</v>
+      <c r="B4" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="12">
         <v>2022</v>
@@ -788,8 +994,8 @@
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="29">
-        <v>16.3</v>
+      <c r="B5" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="C5" s="12">
         <v>2022</v>
@@ -803,8 +1009,8 @@
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="29">
-        <v>14.3</v>
+      <c r="B6" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="C6" s="12">
         <v>2022</v>
@@ -818,8 +1024,8 @@
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29">
-        <v>17.399999999999999</v>
+      <c r="B7" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="C7" s="12">
         <v>2022</v>
@@ -833,8 +1039,8 @@
       <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="29">
-        <v>14.5</v>
+      <c r="B8" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="C8" s="12">
         <v>2022</v>
@@ -848,8 +1054,8 @@
       <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="29">
-        <v>16.5</v>
+      <c r="B9" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="12">
         <v>2022</v>
@@ -889,8 +1095,8 @@
       <c r="A12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="29">
-        <v>15.2</v>
+      <c r="B12" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="12">
         <v>2022</v>
@@ -919,8 +1125,8 @@
       <c r="A14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="29">
-        <v>18.2</v>
+      <c r="B14" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="C14" s="12">
         <v>2022</v>
@@ -934,8 +1140,8 @@
       <c r="A15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="29">
-        <v>17.399999999999999</v>
+      <c r="B15" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="12">
         <v>2022</v>
@@ -949,8 +1155,8 @@
       <c r="A16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="29">
-        <v>13.9</v>
+      <c r="B16" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="C16" s="12">
         <v>2022</v>
@@ -964,8 +1170,8 @@
       <c r="A17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="29">
-        <v>13.8</v>
+      <c r="B17" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="C17" s="12">
         <v>2022</v>
@@ -979,8 +1185,8 @@
       <c r="A18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="30">
-        <v>15.9</v>
+      <c r="B18" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="C18" s="12">
         <v>2022</v>
@@ -994,8 +1200,8 @@
       <c r="A19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="29">
-        <v>15.1</v>
+      <c r="B19" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="C19" s="12">
         <v>2022</v>
@@ -1009,8 +1215,8 @@
       <c r="A20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="29">
-        <v>15.8</v>
+      <c r="B20" s="29" t="s">
+        <v>42</v>
       </c>
       <c r="C20" s="12">
         <v>2022</v>
@@ -1024,8 +1230,8 @@
       <c r="A21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="29">
-        <v>15.9</v>
+      <c r="B21" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="12">
         <v>2022</v>
@@ -1039,8 +1245,8 @@
       <c r="A22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="29">
-        <v>14.6</v>
+      <c r="B22" s="29" t="s">
+        <v>43</v>
       </c>
       <c r="C22" s="12">
         <v>2022</v>
@@ -1054,8 +1260,8 @@
       <c r="A23" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="29">
-        <v>14.2</v>
+      <c r="B23" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="C23" s="12">
         <v>2022</v>
@@ -1069,8 +1275,8 @@
       <c r="A24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="29">
-        <v>18.100000000000001</v>
+      <c r="B24" s="29" t="s">
+        <v>45</v>
       </c>
       <c r="C24" s="12">
         <v>2022</v>
@@ -1084,8 +1290,8 @@
       <c r="A25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="29">
-        <v>14.5</v>
+      <c r="B25" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="C25" s="12">
         <v>2022</v>
@@ -1114,8 +1320,8 @@
       <c r="A27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="29">
-        <v>20.3</v>
+      <c r="B27" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="C27" s="12">
         <v>2022</v>
@@ -1129,8 +1335,8 @@
       <c r="A28" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="31">
-        <v>12.2</v>
+      <c r="B28" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="C28" s="12">
         <v>2022</v>
@@ -1144,8 +1350,8 @@
       <c r="A29" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="28">
-        <v>16.8</v>
+      <c r="B29" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="C29" s="12">
         <v>2021</v>
@@ -1155,8 +1361,8 @@
       <c r="A30" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="29">
-        <v>19.7</v>
+      <c r="B30" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="C30" s="12">
         <v>2021</v>
@@ -1170,8 +1376,8 @@
       <c r="A31" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="29">
-        <v>15.3</v>
+      <c r="B31" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="C31" s="12">
         <v>2021</v>
@@ -1185,8 +1391,8 @@
       <c r="A32" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="29">
-        <v>16.100000000000001</v>
+      <c r="B32" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="C32" s="12">
         <v>2021</v>
@@ -1200,8 +1406,8 @@
       <c r="A33" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="29">
-        <v>13.7</v>
+      <c r="B33" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="C33" s="12">
         <v>2021</v>
@@ -1215,8 +1421,8 @@
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="29">
-        <v>17.399999999999999</v>
+      <c r="B34" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="C34" s="12">
         <v>2021</v>
@@ -1245,8 +1451,8 @@
       <c r="A36" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="29">
-        <v>16.2</v>
+      <c r="B36" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="C36" s="12">
         <v>2021</v>
@@ -1256,8 +1462,8 @@
       <c r="A37" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="29">
-        <v>13.9</v>
+      <c r="B37" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="C37" s="12">
         <v>2021</v>
@@ -1271,8 +1477,8 @@
       <c r="A38" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="29">
-        <v>19.7</v>
+      <c r="B38" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="C38" s="12">
         <v>2021</v>
@@ -1286,8 +1492,8 @@
       <c r="A39" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="29">
-        <v>15.2</v>
+      <c r="B39" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="C39" s="12">
         <v>2021</v>
@@ -1331,8 +1537,8 @@
       <c r="A42" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="29">
-        <v>17.3</v>
+      <c r="B42" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="C42" s="12">
         <v>2021</v>
@@ -1346,8 +1552,8 @@
       <c r="A43" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="29">
-        <v>14.4</v>
+      <c r="B43" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="C43" s="12">
         <v>2021</v>
@@ -1376,8 +1582,8 @@
       <c r="A45" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="30">
-        <v>15.2</v>
+      <c r="B45" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="C45" s="12">
         <v>2021</v>
@@ -1391,8 +1597,8 @@
       <c r="A46" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="29">
-        <v>14.9</v>
+      <c r="B46" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="C46" s="12">
         <v>2021</v>
@@ -1406,8 +1612,8 @@
       <c r="A47" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="29">
-        <v>15.7</v>
+      <c r="B47" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="C47" s="12">
         <v>2021</v>
@@ -1421,8 +1627,8 @@
       <c r="A48" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="29">
-        <v>15.8</v>
+      <c r="B48" s="29" t="s">
+        <v>42</v>
       </c>
       <c r="C48" s="12">
         <v>2021</v>
@@ -1436,8 +1642,8 @@
       <c r="A49" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="29">
-        <v>14.4</v>
+      <c r="B49" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="C49" s="12">
         <v>2021</v>
@@ -1451,8 +1657,8 @@
       <c r="A50" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="29">
-        <v>14.1</v>
+      <c r="B50" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="C50" s="12">
         <v>2021</v>
@@ -1496,8 +1702,8 @@
       <c r="A53" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="29">
-        <v>12.9</v>
+      <c r="B53" s="29" t="s">
+        <v>59</v>
       </c>
       <c r="C53" s="12">
         <v>2021</v>
@@ -1511,8 +1717,8 @@
       <c r="A54" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="29">
-        <v>19.7</v>
+      <c r="B54" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="C54" s="12">
         <v>2021</v>
@@ -1526,8 +1732,8 @@
       <c r="A55" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="31">
-        <v>12.2</v>
+      <c r="B55" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="C55" s="12">
         <v>2021</v>
@@ -1541,8 +1747,8 @@
       <c r="A56" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="28">
-        <v>16.600000000000001</v>
+      <c r="B56" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="C56" s="2">
         <v>2020</v>
@@ -1552,8 +1758,8 @@
       <c r="A57" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="29">
-        <v>19.2</v>
+      <c r="B57" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="C57" s="2">
         <v>2020</v>
@@ -1563,8 +1769,8 @@
       <c r="A58" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="29">
-        <v>15.2</v>
+      <c r="B58" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="C58" s="2">
         <v>2020</v>
@@ -1574,8 +1780,8 @@
       <c r="A59" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="29">
-        <v>15.9</v>
+      <c r="B59" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="C59" s="2">
         <v>2020</v>
@@ -1585,8 +1791,8 @@
       <c r="A60" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="29">
-        <v>13.8</v>
+      <c r="B60" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="C60" s="2">
         <v>2020</v>
@@ -1596,8 +1802,8 @@
       <c r="A61" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="29">
-        <v>16.7</v>
+      <c r="B61" s="29" t="s">
+        <v>62</v>
       </c>
       <c r="C61" s="2">
         <v>2020</v>
@@ -1607,8 +1813,8 @@
       <c r="A62" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="29">
-        <v>14.5</v>
+      <c r="B62" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="C62" s="2">
         <v>2020</v>
@@ -1618,8 +1824,8 @@
       <c r="A63" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="29">
-        <v>16.8</v>
+      <c r="B63" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="C63" s="2">
         <v>2020</v>
@@ -1640,8 +1846,8 @@
       <c r="A65" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="29">
-        <v>19.3</v>
+      <c r="B65" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="C65" s="2">
         <v>2020</v>
@@ -1651,8 +1857,8 @@
       <c r="A66" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="29">
-        <v>14.8</v>
+      <c r="B66" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="C66" s="2">
         <v>2020</v>
@@ -1673,8 +1879,8 @@
       <c r="A68" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="29">
-        <v>17.7</v>
+      <c r="B68" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="C68" s="2">
         <v>2020</v>
@@ -1684,8 +1890,8 @@
       <c r="A69" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="29">
-        <v>17.2</v>
+      <c r="B69" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="C69" s="2">
         <v>2020</v>
@@ -1695,8 +1901,8 @@
       <c r="A70" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="29">
-        <v>13.7</v>
+      <c r="B70" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="C70" s="2">
         <v>2020</v>
@@ -1706,8 +1912,8 @@
       <c r="A71" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B71" s="29">
-        <v>13.9</v>
+      <c r="B71" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="C71" s="2">
         <v>2020</v>
@@ -1728,8 +1934,8 @@
       <c r="A73" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B73" s="29">
-        <v>14.7</v>
+      <c r="B73" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="C73" s="2">
         <v>2020</v>
@@ -1739,8 +1945,8 @@
       <c r="A74" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B74" s="29">
-        <v>15.4</v>
+      <c r="B74" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="C74" s="2">
         <v>2020</v>
@@ -1750,8 +1956,8 @@
       <c r="A75" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="29">
-        <v>15.7</v>
+      <c r="B75" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="C75" s="2">
         <v>2020</v>
@@ -1761,8 +1967,8 @@
       <c r="A76" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="29">
-        <v>14.2</v>
+      <c r="B76" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="C76" s="2">
         <v>2020</v>
@@ -1772,8 +1978,8 @@
       <c r="A77" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="29">
-        <v>14.1</v>
+      <c r="B77" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="C77" s="2">
         <v>2020</v>
@@ -1783,8 +1989,8 @@
       <c r="A78" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B78" s="29">
-        <v>17.7</v>
+      <c r="B78" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="C78" s="2">
         <v>2020</v>
@@ -1794,8 +2000,8 @@
       <c r="A79" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B79" s="29">
-        <v>14.2</v>
+      <c r="B79" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="C79" s="2">
         <v>2020</v>
@@ -1805,8 +2011,8 @@
       <c r="A80" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B80" s="29">
-        <v>12.6</v>
+      <c r="B80" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="C80" s="2">
         <v>2020</v>
@@ -1816,8 +2022,8 @@
       <c r="A81" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B81" s="29">
-        <v>19.7</v>
+      <c r="B81" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="C81" s="2">
         <v>2020</v>
@@ -1838,8 +2044,8 @@
       <c r="A83" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="24">
-        <v>16.5</v>
+      <c r="B83" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="C83" s="12">
         <v>2019</v>
@@ -1849,8 +2055,8 @@
       <c r="A84" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B84" s="25">
-        <v>19.3</v>
+      <c r="B84" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="C84" s="12">
         <v>2019</v>
@@ -1864,8 +2070,8 @@
       <c r="A85" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="25">
-        <v>15.1</v>
+      <c r="B85" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="C85" s="12">
         <v>2019</v>
@@ -1879,8 +2085,8 @@
       <c r="A86" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="25">
-        <v>15.9</v>
+      <c r="B86" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="C86" s="12">
         <v>2019</v>
@@ -1894,8 +2100,8 @@
       <c r="A87" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="25">
-        <v>13.7</v>
+      <c r="B87" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="C87" s="12">
         <v>2019</v>
@@ -1924,8 +2130,8 @@
       <c r="A89" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="25">
-        <v>14.3</v>
+      <c r="B89" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="C89" s="12">
         <v>2019</v>
@@ -1939,8 +2145,8 @@
       <c r="A90" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="25">
-        <v>16.5</v>
+      <c r="B90" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="C90" s="12">
         <v>2019</v>
@@ -1965,8 +2171,8 @@
       <c r="A92" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="25">
-        <v>20.100000000000001</v>
+      <c r="B92" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="C92" s="12">
         <v>2019</v>
@@ -1980,8 +2186,8 @@
       <c r="A93" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B93" s="25">
-        <v>14.5</v>
+      <c r="B93" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="C93" s="12">
         <v>2019</v>
@@ -1995,8 +2201,8 @@
       <c r="A94" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="25">
-        <v>13.9</v>
+      <c r="B94" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="C94" s="12">
         <v>2019</v>
@@ -2010,8 +2216,8 @@
       <c r="A95" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="25">
-        <v>17.7</v>
+      <c r="B95" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="C95" s="12">
         <v>2019</v>
@@ -2040,8 +2246,8 @@
       <c r="A97" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="25">
-        <v>13.4</v>
+      <c r="B97" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="C97" s="12">
         <v>2019</v>
@@ -2055,8 +2261,8 @@
       <c r="A98" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B98" s="25">
-        <v>13.4</v>
+      <c r="B98" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="C98" s="12">
         <v>2019</v>
@@ -2070,8 +2276,8 @@
       <c r="A99" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B99" s="26">
-        <v>15.7</v>
+      <c r="B99" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="C99" s="12">
         <v>2019</v>
@@ -2085,8 +2291,8 @@
       <c r="A100" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B100" s="25">
-        <v>14.5</v>
+      <c r="B100" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="C100" s="12">
         <v>2019</v>
@@ -2100,8 +2306,8 @@
       <c r="A101" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="25">
-        <v>15.8</v>
+      <c r="B101" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="C101" s="12">
         <v>2019</v>
@@ -2115,8 +2321,8 @@
       <c r="A102" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B102" s="25">
-        <v>15.5</v>
+      <c r="B102" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="C102" s="12">
         <v>2019</v>
@@ -2145,8 +2351,8 @@
       <c r="A104" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B104" s="25">
-        <v>13.7</v>
+      <c r="B104" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="C104" s="12">
         <v>2019</v>
@@ -2160,8 +2366,8 @@
       <c r="A105" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B105" s="25">
-        <v>17.399999999999999</v>
+      <c r="B105" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="C105" s="12">
         <v>2019</v>
@@ -2190,8 +2396,8 @@
       <c r="A107" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B107" s="25">
-        <v>12.3</v>
+      <c r="B107" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="C107" s="12">
         <v>2019</v>
@@ -2205,8 +2411,8 @@
       <c r="A108" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B108" s="25">
-        <v>19.5</v>
+      <c r="B108" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="C108" s="12">
         <v>2019</v>
@@ -2220,8 +2426,8 @@
       <c r="A109" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="27">
-        <v>11.5</v>
+      <c r="B109" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="C109" s="12">
         <v>2019</v>
@@ -2235,8 +2441,8 @@
       <c r="A110" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="24">
-        <v>16.3</v>
+      <c r="B110" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="C110" s="4">
         <v>2018</v>
@@ -2246,8 +2452,8 @@
       <c r="A111" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B111" s="25">
-        <v>19.100000000000001</v>
+      <c r="B111" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="C111" s="4">
         <v>2018</v>
@@ -2261,8 +2467,8 @@
       <c r="A112" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B112" s="25">
-        <v>14.8</v>
+      <c r="B112" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="C112" s="4">
         <v>2018</v>
@@ -2276,8 +2482,8 @@
       <c r="A113" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="25">
-        <v>15.6</v>
+      <c r="B113" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="C113" s="4">
         <v>2018</v>
@@ -2291,8 +2497,8 @@
       <c r="A114" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="25">
-        <v>13.4</v>
+      <c r="B114" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="C114" s="4">
         <v>2018</v>
@@ -2306,8 +2512,8 @@
       <c r="A115" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B115" s="25">
-        <v>16.5</v>
+      <c r="B115" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="C115" s="4">
         <v>2018</v>
@@ -2321,8 +2527,8 @@
       <c r="A116" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="25">
-        <v>14.2</v>
+      <c r="B116" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="C116" s="4">
         <v>2018</v>
@@ -2336,8 +2542,8 @@
       <c r="A117" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="25">
-        <v>15.7</v>
+      <c r="B117" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="C117" s="4">
         <v>2018</v>
@@ -2347,8 +2553,8 @@
       <c r="A118" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B118" s="25">
-        <v>13.1</v>
+      <c r="B118" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="C118" s="4">
         <v>2018</v>
@@ -2362,8 +2568,8 @@
       <c r="A119" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B119" s="25">
-        <v>19.8</v>
+      <c r="B119" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="C119" s="4">
         <v>2018</v>
@@ -2377,8 +2583,8 @@
       <c r="A120" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B120" s="25">
-        <v>14.7</v>
+      <c r="B120" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="C120" s="4">
         <v>2018</v>
@@ -2392,8 +2598,8 @@
       <c r="A121" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B121" s="25">
-        <v>13.3</v>
+      <c r="B121" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="C121" s="4">
         <v>2018</v>
@@ -2407,8 +2613,8 @@
       <c r="A122" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B122" s="25">
-        <v>17.399999999999999</v>
+      <c r="B122" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="C122" s="4">
         <v>2018</v>
@@ -2422,8 +2628,8 @@
       <c r="A123" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B123" s="25">
-        <v>16.899999999999999</v>
+      <c r="B123" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="C123" s="4">
         <v>2018</v>
@@ -2437,8 +2643,8 @@
       <c r="A124" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B124" s="25">
-        <v>13.5</v>
+      <c r="B124" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="C124" s="4">
         <v>2018</v>
@@ -2452,8 +2658,8 @@
       <c r="A125" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B125" s="25">
-        <v>12.8</v>
+      <c r="B125" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="C125" s="4">
         <v>2018</v>
@@ -2467,8 +2673,8 @@
       <c r="A126" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B126" s="26">
-        <v>14.4</v>
+      <c r="B126" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="C126" s="4">
         <v>2018</v>
@@ -2482,8 +2688,8 @@
       <c r="A127" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B127" s="25">
-        <v>14.5</v>
+      <c r="B127" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="C127" s="4">
         <v>2018</v>
@@ -2497,8 +2703,8 @@
       <c r="A128" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B128" s="25">
-        <v>15.6</v>
+      <c r="B128" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="C128" s="4">
         <v>2018</v>
@@ -2512,8 +2718,8 @@
       <c r="A129" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B129" s="25">
-        <v>15.6</v>
+      <c r="B129" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="C129" s="4">
         <v>2018</v>
@@ -2527,8 +2733,8 @@
       <c r="A130" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B130" s="25">
-        <v>13.7</v>
+      <c r="B130" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="C130" s="4">
         <v>2018</v>
@@ -2542,8 +2748,8 @@
       <c r="A131" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B131" s="25">
-        <v>13.7</v>
+      <c r="B131" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="C131" s="4">
         <v>2018</v>
@@ -2557,8 +2763,8 @@
       <c r="A132" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B132" s="25">
-        <v>17.100000000000001</v>
+      <c r="B132" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="C132" s="4">
         <v>2018</v>
@@ -2587,8 +2793,8 @@
       <c r="A134" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B134" s="25">
-        <v>12.2</v>
+      <c r="B134" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="C134" s="4">
         <v>2018</v>
@@ -2602,8 +2808,8 @@
       <c r="A135" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B135" s="25">
-        <v>18.899999999999999</v>
+      <c r="B135" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="C135" s="4">
         <v>2018</v>
@@ -2617,8 +2823,8 @@
       <c r="A136" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B136" s="27">
-        <v>10.9</v>
+      <c r="B136" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="C136" s="4">
         <v>2018</v>
@@ -2643,8 +2849,8 @@
       <c r="A138" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B138" s="18">
-        <v>18.7</v>
+      <c r="B138" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="C138" s="4">
         <v>2017</v>
@@ -2658,8 +2864,8 @@
       <c r="A139" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B139" s="18">
-        <v>14.5</v>
+      <c r="B139" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="C139" s="4">
         <v>2017</v>
@@ -2673,8 +2879,8 @@
       <c r="A140" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B140" s="18">
-        <v>15.4</v>
+      <c r="B140" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C140" s="4">
         <v>2017</v>
@@ -2688,8 +2894,8 @@
       <c r="A141" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="18">
-        <v>13.1</v>
+      <c r="B141" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="C141" s="4">
         <v>2017</v>
@@ -2703,8 +2909,8 @@
       <c r="A142" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B142" s="18">
-        <v>16.3</v>
+      <c r="B142" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="C142" s="4">
         <v>2017</v>
@@ -2733,8 +2939,8 @@
       <c r="A144" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B144" s="21">
-        <v>16.7</v>
+      <c r="B144" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="C144" s="4">
         <v>2017</v>
@@ -2744,8 +2950,8 @@
       <c r="A145" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B145" s="21">
-        <v>12.7</v>
+      <c r="B145" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="C145" s="4">
         <v>2017</v>
@@ -2759,8 +2965,8 @@
       <c r="A146" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B146" s="21">
-        <v>19.5</v>
+      <c r="B146" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="C146" s="4">
         <v>2017</v>
@@ -2774,8 +2980,8 @@
       <c r="A147" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B147" s="21">
-        <v>14.8</v>
+      <c r="B147" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="C147" s="4">
         <v>2017</v>
@@ -2789,8 +2995,8 @@
       <c r="A148" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B148" s="21">
-        <v>13.6</v>
+      <c r="B148" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="C148" s="4">
         <v>2017</v>
@@ -2804,8 +3010,8 @@
       <c r="A149" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B149" s="21">
-        <v>16.8</v>
+      <c r="B149" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="C149" s="4">
         <v>2017</v>
@@ -2819,8 +3025,8 @@
       <c r="A150" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B150" s="21">
-        <v>16.7</v>
+      <c r="B150" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="C150" s="4">
         <v>2017</v>
@@ -2834,8 +3040,8 @@
       <c r="A151" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B151" s="21">
-        <v>13.5</v>
+      <c r="B151" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="C151" s="4">
         <v>2017</v>
@@ -2849,8 +3055,8 @@
       <c r="A152" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B152" s="21">
-        <v>12.8</v>
+      <c r="B152" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="C152" s="4">
         <v>2017</v>
@@ -2879,8 +3085,8 @@
       <c r="A154" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B154" s="21">
-        <v>14.4</v>
+      <c r="B154" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="C154" s="4">
         <v>2017</v>
@@ -2894,8 +3100,8 @@
       <c r="A155" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B155" s="21">
-        <v>15.3</v>
+      <c r="B155" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="C155" s="4">
         <v>2017</v>
@@ -2909,8 +3115,8 @@
       <c r="A156" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B156" s="21">
-        <v>15.1</v>
+      <c r="B156" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="C156" s="4">
         <v>2017</v>
@@ -2924,8 +3130,8 @@
       <c r="A157" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B157" s="18">
-        <v>13.9</v>
+      <c r="B157" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="C157" s="4">
         <v>2017</v>
@@ -2939,8 +3145,8 @@
       <c r="A158" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B158" s="21">
-        <v>13.5</v>
+      <c r="B158" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="C158" s="4">
         <v>2017</v>
@@ -2954,8 +3160,8 @@
       <c r="A159" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B159" s="21">
-        <v>17.100000000000001</v>
+      <c r="B159" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="C159" s="4">
         <v>2017</v>
@@ -2969,8 +3175,8 @@
       <c r="A160" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B160" s="21">
-        <v>13.9</v>
+      <c r="B160" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="C160" s="4">
         <v>2017</v>
@@ -2984,8 +3190,8 @@
       <c r="A161" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B161" s="21">
-        <v>11.7</v>
+      <c r="B161" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="C161" s="4">
         <v>2017</v>
@@ -2999,8 +3205,8 @@
       <c r="A162" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B162" s="21">
-        <v>18.5</v>
+      <c r="B162" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="C162" s="4">
         <v>2017</v>
@@ -3014,8 +3220,8 @@
       <c r="A163" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="22">
-        <v>11.3</v>
+      <c r="B163" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="C163" s="4">
         <v>2017</v>
@@ -3029,8 +3235,8 @@
       <c r="A164" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B164" s="17">
-        <v>15.9</v>
+      <c r="B164" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="C164" s="4">
         <v>2016</v>
@@ -3040,8 +3246,8 @@
       <c r="A165" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B165" s="18">
-        <v>18.600000000000001</v>
+      <c r="B165" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="C165" s="4">
         <v>2016</v>
@@ -3055,8 +3261,8 @@
       <c r="A166" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B166" s="18">
-        <v>14.5</v>
+      <c r="B166" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="C166" s="4">
         <v>2016</v>
@@ -3070,8 +3276,8 @@
       <c r="A167" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B167" s="18">
-        <v>15.4</v>
+      <c r="B167" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C167" s="4">
         <v>2016</v>
@@ -3085,8 +3291,8 @@
       <c r="A168" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B168" s="18">
-        <v>13.5</v>
+      <c r="B168" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="C168" s="4">
         <v>2016</v>
@@ -3100,8 +3306,8 @@
       <c r="A169" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B169" s="18">
-        <v>16.7</v>
+      <c r="B169" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="C169" s="4">
         <v>2016</v>
@@ -3115,8 +3321,8 @@
       <c r="A170" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B170" s="18">
-        <v>13.2</v>
+      <c r="B170" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="C170" s="4">
         <v>2016</v>
@@ -3130,8 +3336,8 @@
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B171" s="21">
-        <v>15.3</v>
+      <c r="B171" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="C171" s="4">
         <v>2016</v>
@@ -3141,8 +3347,8 @@
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B172" s="21">
-        <v>13.6</v>
+      <c r="B172" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="C172" s="4">
         <v>2016</v>
@@ -3156,8 +3362,8 @@
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B173" s="21">
-        <v>20.2</v>
+      <c r="B173" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="C173" s="4">
         <v>2016</v>
@@ -3171,8 +3377,8 @@
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B174" s="21">
-        <v>14.5</v>
+      <c r="B174" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="C174" s="4">
         <v>2016</v>
@@ -3186,8 +3392,8 @@
       <c r="A175" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B175" s="21">
-        <v>13.3</v>
+      <c r="B175" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="C175" s="4">
         <v>2016</v>
@@ -3201,8 +3407,8 @@
       <c r="A176" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B176" s="21">
-        <v>16.899999999999999</v>
+      <c r="B176" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="C176" s="4">
         <v>2016</v>
@@ -3216,8 +3422,8 @@
       <c r="A177" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B177" s="21">
-        <v>16.3</v>
+      <c r="B177" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="C177" s="4">
         <v>2016</v>
@@ -3231,8 +3437,8 @@
       <c r="A178" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B178" s="21">
-        <v>13.4</v>
+      <c r="B178" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="C178" s="4">
         <v>2016</v>
@@ -3246,8 +3452,8 @@
       <c r="A179" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B179" s="21">
-        <v>12.6</v>
+      <c r="B179" s="21" t="s">
+        <v>68</v>
       </c>
       <c r="C179" s="4">
         <v>2016</v>
@@ -3261,8 +3467,8 @@
       <c r="A180" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B180" s="23">
-        <v>13.2</v>
+      <c r="B180" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="C180" s="4">
         <v>2016</v>
@@ -3291,8 +3497,8 @@
       <c r="A182" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B182" s="21">
-        <v>15.3</v>
+      <c r="B182" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="C182" s="4">
         <v>2016</v>
@@ -3306,8 +3512,8 @@
       <c r="A183" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B183" s="21">
-        <v>15.1</v>
+      <c r="B183" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="C183" s="4">
         <v>2016</v>
@@ -3321,8 +3527,8 @@
       <c r="A184" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B184" s="18">
-        <v>13.6</v>
+      <c r="B184" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="C184" s="4">
         <v>2016</v>
@@ -3336,8 +3542,8 @@
       <c r="A185" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B185" s="21">
-        <v>13.4</v>
+      <c r="B185" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="C185" s="4">
         <v>2016</v>
@@ -3351,8 +3557,8 @@
       <c r="A186" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B186" s="21">
-        <v>16.600000000000001</v>
+      <c r="B186" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="C186" s="4">
         <v>2016</v>
@@ -3366,8 +3572,8 @@
       <c r="A187" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B187" s="21">
-        <v>13.5</v>
+      <c r="B187" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="C187" s="4">
         <v>2016</v>
@@ -3381,8 +3587,8 @@
       <c r="A188" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B188" s="21">
-        <v>11.7</v>
+      <c r="B188" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="C188" s="4">
         <v>2016</v>
@@ -3396,8 +3602,8 @@
       <c r="A189" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B189" s="21">
-        <v>18.399999999999999</v>
+      <c r="B189" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="C189" s="4">
         <v>2016</v>
@@ -3411,8 +3617,8 @@
       <c r="A190" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B190" s="22">
-        <v>11.7</v>
+      <c r="B190" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="C190" s="4">
         <v>2016</v>
@@ -3426,8 +3632,8 @@
       <c r="A191" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B191" s="17">
-        <v>15.7</v>
+      <c r="B191" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="C191" s="4">
         <v>2015</v>
@@ -3437,8 +3643,8 @@
       <c r="A192" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B192" s="18">
-        <v>18.3</v>
+      <c r="B192" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="C192" s="4">
         <v>2015</v>
@@ -3452,8 +3658,8 @@
       <c r="A193" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B193" s="18">
-        <v>14.3</v>
+      <c r="B193" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="C193" s="4">
         <v>2015</v>
@@ -3467,8 +3673,8 @@
       <c r="A194" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B194" s="18">
-        <v>15.2</v>
+      <c r="B194" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C194" s="4">
         <v>2015</v>
@@ -3482,8 +3688,8 @@
       <c r="A195" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B195" s="18">
-        <v>12.7</v>
+      <c r="B195" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="C195" s="4">
         <v>2015</v>
@@ -3497,8 +3703,8 @@
       <c r="A196" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B196" s="18">
-        <v>16.600000000000001</v>
+      <c r="B196" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="C196" s="4">
         <v>2015</v>
@@ -3527,8 +3733,8 @@
       <c r="A198" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B198" s="18">
-        <v>15.3</v>
+      <c r="B198" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="C198" s="4">
         <v>2015</v>
@@ -3538,8 +3744,8 @@
       <c r="A199" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B199" s="18">
-        <v>11.8</v>
+      <c r="B199" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="C199" s="4">
         <v>2015</v>
@@ -3553,8 +3759,8 @@
       <c r="A200" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B200" s="18">
-        <v>19.5</v>
+      <c r="B200" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="C200" s="4">
         <v>2015</v>
@@ -3568,8 +3774,8 @@
       <c r="A201" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B201" s="18">
-        <v>14.2</v>
+      <c r="B201" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="C201" s="4">
         <v>2015</v>
@@ -3583,8 +3789,8 @@
       <c r="A202" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B202" s="18">
-        <v>13.4</v>
+      <c r="B202" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="C202" s="4">
         <v>2015</v>
@@ -3598,8 +3804,8 @@
       <c r="A203" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B203" s="18">
-        <v>16.399999999999999</v>
+      <c r="B203" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="C203" s="4">
         <v>2015</v>
@@ -3613,8 +3819,8 @@
       <c r="A204" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B204" s="18">
-        <v>16.3</v>
+      <c r="B204" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="C204" s="4">
         <v>2015</v>
@@ -3628,8 +3834,8 @@
       <c r="A205" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B205" s="18">
-        <v>13.1</v>
+      <c r="B205" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="C205" s="4">
         <v>2015</v>
@@ -3658,8 +3864,8 @@
       <c r="A207" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B207" s="20">
-        <v>12.9</v>
+      <c r="B207" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="C207" s="4">
         <v>2015</v>
@@ -3688,8 +3894,8 @@
       <c r="A209" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B209" s="18">
-        <v>15.2</v>
+      <c r="B209" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C209" s="4">
         <v>2015</v>
@@ -3718,8 +3924,8 @@
       <c r="A211" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B211" s="18">
-        <v>13.3</v>
+      <c r="B211" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="C211" s="4">
         <v>2015</v>
@@ -3733,8 +3939,8 @@
       <c r="A212" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B212" s="18">
-        <v>13.3</v>
+      <c r="B212" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="C212" s="4">
         <v>2015</v>
@@ -3748,8 +3954,8 @@
       <c r="A213" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B213" s="18">
-        <v>16.3</v>
+      <c r="B213" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="C213" s="4">
         <v>2015</v>
@@ -3763,8 +3969,8 @@
       <c r="A214" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B214" s="18">
-        <v>13.3</v>
+      <c r="B214" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="C214" s="4">
         <v>2015</v>
@@ -3778,8 +3984,8 @@
       <c r="A215" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B215" s="18">
-        <v>11.5</v>
+      <c r="B215" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C215" s="4">
         <v>2015</v>
@@ -3793,8 +3999,8 @@
       <c r="A216" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B216" s="18">
-        <v>18.100000000000001</v>
+      <c r="B216" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="C216" s="4">
         <v>2015</v>
@@ -3808,8 +4014,8 @@
       <c r="A217" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B217" s="19">
-        <v>10.6</v>
+      <c r="B217" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="C217" s="4">
         <v>2015</v>
@@ -3823,8 +4029,8 @@
       <c r="A218" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B218" s="17">
-        <v>16.3</v>
+      <c r="B218" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="C218" s="4">
         <v>2014</v>
@@ -3834,8 +4040,8 @@
       <c r="A219" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B219" s="18">
-        <v>18.8</v>
+      <c r="B219" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="C219" s="4">
         <v>2014</v>
@@ -3864,8 +4070,8 @@
       <c r="A221" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B221" s="18">
-        <v>15.6</v>
+      <c r="B221" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="C221" s="4">
         <v>2014</v>
@@ -3879,8 +4085,8 @@
       <c r="A222" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B222" s="18">
-        <v>13.6</v>
+      <c r="B222" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="C222" s="4">
         <v>2014</v>
@@ -3894,8 +4100,8 @@
       <c r="A223" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B223" s="18">
-        <v>17.399999999999999</v>
+      <c r="B223" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="C223" s="4">
         <v>2014</v>
@@ -3909,8 +4115,8 @@
       <c r="A224" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B224" s="18">
-        <v>14.6</v>
+      <c r="B224" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C224" s="4">
         <v>2014</v>
@@ -3924,8 +4130,8 @@
       <c r="A225" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B225" s="18">
-        <v>16.8</v>
+      <c r="B225" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="C225" s="4">
         <v>2014</v>
@@ -3935,8 +4141,8 @@
       <c r="A226" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B226" s="18">
-        <v>12.9</v>
+      <c r="B226" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="C226" s="4">
         <v>2014</v>
@@ -3950,8 +4156,8 @@
       <c r="A227" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B227" s="18">
-        <v>19.899999999999999</v>
+      <c r="B227" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="C227" s="4">
         <v>2014</v>
@@ -3965,8 +4171,8 @@
       <c r="A228" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B228" s="18">
-        <v>15.2</v>
+      <c r="B228" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C228" s="4">
         <v>2014</v>
@@ -3995,8 +4201,8 @@
       <c r="A230" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B230" s="18">
-        <v>16.8</v>
+      <c r="B230" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="C230" s="4">
         <v>2014</v>
@@ -4025,8 +4231,8 @@
       <c r="A232" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B232" s="18">
-        <v>14.2</v>
+      <c r="B232" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="C232" s="4">
         <v>2014</v>
@@ -4040,8 +4246,8 @@
       <c r="A233" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B233" s="18">
-        <v>13.1</v>
+      <c r="B233" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="C233" s="4">
         <v>2014</v>
@@ -4055,8 +4261,8 @@
       <c r="A234" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B234" s="20">
-        <v>14.1</v>
+      <c r="B234" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="C234" s="4">
         <v>2014</v>
@@ -4085,8 +4291,8 @@
       <c r="A236" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B236" s="18">
-        <v>15.4</v>
+      <c r="B236" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C236" s="4">
         <v>2014</v>
@@ -4100,8 +4306,8 @@
       <c r="A237" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B237" s="18">
-        <v>15.5</v>
+      <c r="B237" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="C237" s="4">
         <v>2014</v>
@@ -4115,8 +4321,8 @@
       <c r="A238" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B238" s="18">
-        <v>13.8</v>
+      <c r="B238" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="C238" s="4">
         <v>2014</v>
@@ -4130,8 +4336,8 @@
       <c r="A239" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B239" s="18">
-        <v>13.9</v>
+      <c r="B239" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="C239" s="4">
         <v>2014</v>
@@ -4145,8 +4351,8 @@
       <c r="A240" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B240" s="18">
-        <v>17.2</v>
+      <c r="B240" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="C240" s="4">
         <v>2014</v>
@@ -4160,8 +4366,8 @@
       <c r="A241" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B241" s="18">
-        <v>14.3</v>
+      <c r="B241" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="C241" s="4">
         <v>2014</v>
@@ -4175,8 +4381,8 @@
       <c r="A242" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B242" s="18">
-        <v>12.5</v>
+      <c r="B242" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="C242" s="4">
         <v>2014</v>
@@ -4190,8 +4396,8 @@
       <c r="A243" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B243" s="18">
-        <v>18.7</v>
+      <c r="B243" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="C243" s="4">
         <v>2014</v>
@@ -4205,8 +4411,8 @@
       <c r="A244" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B244" s="19">
-        <v>11.8</v>
+      <c r="B244" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="C244" s="4">
         <v>2014</v>
@@ -4220,8 +4426,8 @@
       <c r="A245" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B245" s="17">
-        <v>16.100000000000001</v>
+      <c r="B245" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="C245" s="4">
         <v>2013</v>
@@ -4231,8 +4437,8 @@
       <c r="A246" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B246" s="18">
-        <v>18.8</v>
+      <c r="B246" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="C246" s="4">
         <v>2013</v>
@@ -4246,8 +4452,8 @@
       <c r="A247" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B247" s="18">
-        <v>14.6</v>
+      <c r="B247" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C247" s="4">
         <v>2013</v>
@@ -4261,8 +4467,8 @@
       <c r="A248" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B248" s="18">
-        <v>15.5</v>
+      <c r="B248" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="C248" s="4">
         <v>2013</v>
@@ -4276,8 +4482,8 @@
       <c r="A249" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B249" s="18">
-        <v>14.6</v>
+      <c r="B249" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C249" s="4">
         <v>2013</v>
@@ -4291,8 +4497,8 @@
       <c r="A250" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B250" s="18">
-        <v>16.899999999999999</v>
+      <c r="B250" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="C250" s="4">
         <v>2013</v>
@@ -4306,8 +4512,8 @@
       <c r="A251" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B251" s="18">
-        <v>15.4</v>
+      <c r="B251" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C251" s="4">
         <v>2013</v>
@@ -4321,8 +4527,8 @@
       <c r="A252" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B252" s="18">
-        <v>16.399999999999999</v>
+      <c r="B252" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="C252" s="4">
         <v>2013</v>
@@ -4332,8 +4538,8 @@
       <c r="A253" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B253" s="18">
-        <v>13.1</v>
+      <c r="B253" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="C253" s="4">
         <v>2013</v>
@@ -4347,8 +4553,8 @@
       <c r="A254" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B254" s="18">
-        <v>19.100000000000001</v>
+      <c r="B254" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="C254" s="4">
         <v>2013</v>
@@ -4362,8 +4568,8 @@
       <c r="A255" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B255" s="18">
-        <v>14.6</v>
+      <c r="B255" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C255" s="4">
         <v>2013</v>
@@ -4377,8 +4583,8 @@
       <c r="A256" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B256" s="18">
-        <v>13.6</v>
+      <c r="B256" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="C256" s="4">
         <v>2013</v>
@@ -4392,8 +4598,8 @@
       <c r="A257" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B257" s="18">
-        <v>16.7</v>
+      <c r="B257" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="C257" s="4">
         <v>2013</v>
@@ -4407,8 +4613,8 @@
       <c r="A258" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B258" s="18">
-        <v>16.5</v>
+      <c r="B258" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="C258" s="4">
         <v>2013</v>
@@ -4422,8 +4628,8 @@
       <c r="A259" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B259" s="18">
-        <v>13.3</v>
+      <c r="B259" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="C259" s="4">
         <v>2013</v>
@@ -4437,8 +4643,8 @@
       <c r="A260" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B260" s="18">
-        <v>12.9</v>
+      <c r="B260" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="C260" s="4">
         <v>2013</v>
@@ -4452,8 +4658,8 @@
       <c r="A261" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B261" s="20">
-        <v>13.7</v>
+      <c r="B261" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="C261" s="4">
         <v>2013</v>
@@ -4467,8 +4673,8 @@
       <c r="A262" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B262" s="18">
-        <v>14.4</v>
+      <c r="B262" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="C262" s="4">
         <v>2013</v>
@@ -4482,8 +4688,8 @@
       <c r="A263" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B263" s="18">
-        <v>16.100000000000001</v>
+      <c r="B263" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="C263" s="4">
         <v>2013</v>
@@ -4497,8 +4703,8 @@
       <c r="A264" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B264" s="18">
-        <v>15.5</v>
+      <c r="B264" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="C264" s="4">
         <v>2013</v>
@@ -4512,8 +4718,8 @@
       <c r="A265" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B265" s="18">
-        <v>13.5</v>
+      <c r="B265" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="C265" s="4">
         <v>2013</v>
@@ -4527,8 +4733,8 @@
       <c r="A266" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B266" s="18">
-        <v>13.7</v>
+      <c r="B266" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="C266" s="4">
         <v>2013</v>
@@ -4542,8 +4748,8 @@
       <c r="A267" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B267" s="18">
-        <v>16.600000000000001</v>
+      <c r="B267" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="C267" s="4">
         <v>2013</v>
@@ -4557,8 +4763,8 @@
       <c r="A268" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B268" s="18">
-        <v>13.7</v>
+      <c r="B268" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="C268" s="4">
         <v>2013</v>
@@ -4572,8 +4778,8 @@
       <c r="A269" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B269" s="18">
-        <v>12.3</v>
+      <c r="B269" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="C269" s="4">
         <v>2013</v>
@@ -4587,8 +4793,8 @@
       <c r="A270" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B270" s="18">
-        <v>18.7</v>
+      <c r="B270" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="C270" s="4">
         <v>2013</v>
@@ -4602,8 +4808,8 @@
       <c r="A271" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B271" s="19">
-        <v>11.6</v>
+      <c r="B271" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="C271" s="4">
         <v>2013</v>
@@ -4628,8 +4834,8 @@
       <c r="A273" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B273" s="18">
-        <v>18.5</v>
+      <c r="B273" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="C273" s="4">
         <v>2012</v>
@@ -4650,8 +4856,8 @@
       <c r="A275" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B275" s="18">
-        <v>15.4</v>
+      <c r="B275" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C275" s="4">
         <v>2012</v>
@@ -4661,8 +4867,8 @@
       <c r="A276" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B276" s="18">
-        <v>12.9</v>
+      <c r="B276" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="C276" s="4">
         <v>2012</v>
@@ -4672,8 +4878,8 @@
       <c r="A277" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B277" s="18">
-        <v>16.899999999999999</v>
+      <c r="B277" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="C277" s="4">
         <v>2012</v>
@@ -4683,8 +4889,8 @@
       <c r="A278" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B278" s="18">
-        <v>14.4</v>
+      <c r="B278" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="C278" s="4">
         <v>2012</v>
@@ -4694,8 +4900,8 @@
       <c r="A279" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B279" s="18">
-        <v>15.8</v>
+      <c r="B279" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="C279" s="4">
         <v>2012</v>
@@ -4705,8 +4911,8 @@
       <c r="A280" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B280" s="18">
-        <v>12.4</v>
+      <c r="B280" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="C280" s="4">
         <v>2012</v>
@@ -4716,8 +4922,8 @@
       <c r="A281" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B281" s="18">
-        <v>19.600000000000001</v>
+      <c r="B281" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="C281" s="4">
         <v>2012</v>
@@ -4727,8 +4933,8 @@
       <c r="A282" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B282" s="18">
-        <v>14.6</v>
+      <c r="B282" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C282" s="4">
         <v>2012</v>
@@ -4738,8 +4944,8 @@
       <c r="A283" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B283" s="18">
-        <v>13.5</v>
+      <c r="B283" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="C283" s="4">
         <v>2012</v>
@@ -4749,8 +4955,8 @@
       <c r="A284" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B284" s="18">
-        <v>16.600000000000001</v>
+      <c r="B284" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="C284" s="4">
         <v>2012</v>
@@ -4760,8 +4966,8 @@
       <c r="A285" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B285" s="18">
-        <v>16.899999999999999</v>
+      <c r="B285" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="C285" s="4">
         <v>2012</v>
@@ -4782,8 +4988,8 @@
       <c r="A287" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B287" s="18">
-        <v>12.9</v>
+      <c r="B287" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="C287" s="4">
         <v>2012</v>
@@ -4793,8 +4999,8 @@
       <c r="A288" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B288" s="20">
-        <v>13.9</v>
+      <c r="B288" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="C288" s="4">
         <v>2012</v>
@@ -4804,8 +5010,8 @@
       <c r="A289" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B289" s="18">
-        <v>14.2</v>
+      <c r="B289" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="C289" s="4">
         <v>2012</v>
@@ -4826,8 +5032,8 @@
       <c r="A291" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B291" s="18">
-        <v>15.2</v>
+      <c r="B291" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C291" s="4">
         <v>2012</v>
@@ -4837,8 +5043,8 @@
       <c r="A292" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B292" s="18">
-        <v>13.7</v>
+      <c r="B292" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="C292" s="4">
         <v>2012</v>
@@ -4848,8 +5054,8 @@
       <c r="A293" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B293" s="18">
-        <v>13.4</v>
+      <c r="B293" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="C293" s="4">
         <v>2012</v>
@@ -4859,8 +5065,8 @@
       <c r="A294" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B294" s="18">
-        <v>16.600000000000001</v>
+      <c r="B294" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="C294" s="4">
         <v>2012</v>
@@ -4870,8 +5076,8 @@
       <c r="A295" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B295" s="18">
-        <v>13.6</v>
+      <c r="B295" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="C295" s="4">
         <v>2012</v>
@@ -4881,8 +5087,8 @@
       <c r="A296" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B296" s="18">
-        <v>12.3</v>
+      <c r="B296" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="C296" s="4">
         <v>2012</v>
@@ -4892,8 +5098,8 @@
       <c r="A297" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B297" s="18">
-        <v>18.5</v>
+      <c r="B297" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="C297" s="4">
         <v>2012</v>
@@ -4903,8 +5109,8 @@
       <c r="A298" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B298" s="19">
-        <v>11.1</v>
+      <c r="B298" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="C298" s="4">
         <v>2012</v>
